--- a/reviews_sentiment.xlsx
+++ b/reviews_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4179,6 +4179,78 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Very Good service</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>I liked the food, and the music was really good</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45465</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>liked food , music really good</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.7178</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>No food on the plane</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>My family and I were so hungry and it was bad. They did not give us food. I feel so annoyed.</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45466</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>family hungry bad . give u food . feel annoyed .</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.5499999999999999</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.7269</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
